--- a/src/test/resources/dataRepo/InputData.xlsx
+++ b/src/test/resources/dataRepo/InputData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARUN\VtigerCRM\SDET37\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARUN\VtigerCRM\SDET37\src\test\resources\dataRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6CB54A-9465-4882-9D45-D6265DE53667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF48847-F711-4783-AE4B-07028779B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3360" windowWidth="17280" windowHeight="8880" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateProject" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
     <sheet name="Links" sheetId="3" r:id="rId4"/>
     <sheet name="newLink" sheetId="4" r:id="rId5"/>
     <sheet name="Assets" sheetId="5" r:id="rId6"/>
+    <sheet name="salesOrder" sheetId="7" r:id="rId7"/>
+    <sheet name="opportunities" sheetId="8" r:id="rId8"/>
+    <sheet name="vendors" sheetId="9" r:id="rId9"/>
+    <sheet name="Product" sheetId="10" r:id="rId10"/>
+    <sheet name="Organization" sheetId="11" r:id="rId11"/>
+    <sheet name="contacts" sheetId="12" r:id="rId12"/>
+    <sheet name="composeMail" sheetId="14" r:id="rId13"/>
+    <sheet name="Documents" sheetId="15" r:id="rId14"/>
+    <sheet name="Campaign" sheetId="16" r:id="rId15"/>
+    <sheet name="AllDropDown" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="144">
   <si>
     <t>ProjectId</t>
   </si>
@@ -372,6 +382,96 @@
   </si>
   <si>
     <t>New Asset</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>AKM</t>
+  </si>
+  <si>
+    <t>opportunityName</t>
+  </si>
+  <si>
+    <t>AK Opportunity</t>
+  </si>
+  <si>
+    <t>dueDate</t>
+  </si>
+  <si>
+    <t>Dummy address for billing address</t>
+  </si>
+  <si>
+    <t>dummy shipping address</t>
+  </si>
+  <si>
+    <t>vendorName</t>
+  </si>
+  <si>
+    <t>KiranRaj</t>
+  </si>
+  <si>
+    <t>AK New Enterprises2</t>
+  </si>
+  <si>
+    <t>AK New Enterprises</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>arun112@gmail.com</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>this is demo subject</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>this is to check that body is accepting field or not</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>DemoDocuments</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>This is working</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>PUNK</t>
+  </si>
+  <si>
+    <t>Punk</t>
+  </si>
+  <si>
+    <t>campaignName</t>
+  </si>
+  <si>
+    <t>Advertisement</t>
   </si>
 </sst>
 </file>
@@ -413,9 +513,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,6 +1001,235 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA91B9CF-53B0-4300-82E0-B82ED04C7C9F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993E5C62-B65A-4D76-BCCF-C73CE07315AF}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040863DC-716D-4F55-8AD2-E642D3D706FE}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3611570A-547C-498E-95A6-D89D0F097A15}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F700576-C29E-40F9-B0B7-8DC42A05D1C2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8788F5F3-706D-4213-B0DC-703DDF434BC4}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80513F2-673E-48C7-90D9-9C3AAE0CDB56}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86E1374-09C6-41EE-923D-F04164B8E5DD}">
   <dimension ref="A1:H2"/>
@@ -2183,7 +2513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EA14DC-F1F3-4793-92DB-B42250A5D237}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -2234,4 +2564,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA97D25D-92EF-4535-9534-D0DCE7E4E6D7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44803</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD23CA4-BB66-4D71-992F-98B7B5C349F4}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44772</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0982EFFE-ED86-40F5-BFAC-FA1DEF8434F0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/dataRepo/InputData.xlsx
+++ b/src/test/resources/dataRepo/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARUN\VtigerCRM\SDET37\src\test\resources\dataRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF48847-F711-4783-AE4B-07028779B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE522C9-AAF4-427C-841A-9BFB9362EDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="3360" windowWidth="17280" windowHeight="8880" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="202">
   <si>
     <t>ProjectId</t>
   </si>
@@ -472,6 +472,180 @@
   </si>
   <si>
     <t>Advertisement</t>
+  </si>
+  <si>
+    <t>Contact- SalutationDropdown</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>Organization- Industry</t>
+  </si>
+  <si>
+    <t>Apparel</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Food &amp; Beverage</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Not For Profit</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Organization- Type</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Competitor</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Integrator</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Press</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>Reseller</t>
+  </si>
+  <si>
+    <t>SalesOrder -status</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>SalesOrder- Invoice status</t>
+  </si>
+  <si>
+    <t>Due date selected sucessfully</t>
+  </si>
+  <si>
+    <t>AutoCreated</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>Credit Invoice</t>
+  </si>
+  <si>
+    <t>Paid</t>
   </si>
 </sst>
 </file>
@@ -1218,14 +1392,272 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80513F2-673E-48C7-90D9-9C3AAE0CDB56}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
